--- a/Resource/data.xlsx
+++ b/Resource/data.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
